--- a/Compare/rank.xlsx
+++ b/Compare/rank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2C734-E52F-4798-8421-517546259079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438FACE-AB20-4EF9-8FF6-ABD4AC174302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1754,7 +1754,7 @@
   <dimension ref="A1:BI357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
